--- a/data/Nombre de los productos.xlsx
+++ b/data/Nombre de los productos.xlsx
@@ -14,38 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Taxol</t>
+  </si>
+  <si>
+    <t>Vimblastina</t>
+  </si>
+  <si>
+    <t>Colchicina</t>
+  </si>
+  <si>
+    <t>Estabiliza los microtubulos</t>
+  </si>
+  <si>
+    <t>Despolimeriza los microtubulos</t>
+  </si>
+  <si>
+    <t>Redondea la celula (microtubulos)</t>
+  </si>
+  <si>
+    <t>Cisplatino</t>
+  </si>
+  <si>
+    <t>DTA100</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Taxol</t>
-  </si>
-  <si>
-    <t>Vimblastina</t>
-  </si>
-  <si>
-    <t>Colchicina</t>
-  </si>
-  <si>
-    <t>Estabiliza los microtubulos</t>
-  </si>
-  <si>
-    <t>Despolimeriza los microtubulos</t>
-  </si>
-  <si>
-    <t>Redondea la celula (microtubulos)</t>
-  </si>
-  <si>
-    <t>Cisplatino</t>
-  </si>
-  <si>
-    <t>DTA100</t>
-  </si>
-  <si>
     <t>(No funciono bien) Se une al DNA, inhibicion sintesis de DNA, apoptosis (muerte celular)</t>
   </si>
   <si>
@@ -70,15 +70,6 @@
     <t>Muerte celular por apoptosis</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>Vinblastina</t>
-  </si>
-  <si>
-    <t>ControlSw</t>
-  </si>
-  <si>
     <t>Tamoxifeno</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
   </si>
   <si>
     <t>Etoposido</t>
-  </si>
-  <si>
-    <t>5 Fluoracilo</t>
   </si>
   <si>
     <t>Desconocidos</t>
@@ -144,19 +132,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,39 +180,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -541,17 +508,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="77.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="42.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -566,400 +531,386 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3">
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="3">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="8">
-        <v>16</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="8"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="3">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
